--- a/output/estat-desc-anomaly.xlsx
+++ b/output/estat-desc-anomaly.xlsx
@@ -404,19 +404,19 @@
         <v>3170</v>
       </c>
       <c r="C2">
-        <v>387.1016018289494</v>
+        <v>-0.02521513448528687</v>
       </c>
       <c r="D2">
-        <v>387.1268169634347</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1.18230522900363</v>
       </c>
       <c r="F2">
-        <v>-0.1972230939053828</v>
+        <v>-0.1972230939053632</v>
       </c>
       <c r="G2">
-        <v>0.9477149137676752</v>
+        <v>0.9477149137676699</v>
       </c>
     </row>
     <row r="3">
@@ -429,10 +429,10 @@
         <v>3072</v>
       </c>
       <c r="C3">
-        <v>387.5687990774547</v>
+        <v>-0.02293601632118225</v>
       </c>
       <c r="D3">
-        <v>387.5917350937759</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1.536246302957206</v>
@@ -454,19 +454,19 @@
         <v>2256</v>
       </c>
       <c r="C4">
-        <v>387.1826566112436</v>
+        <v>-0.05640017732660822</v>
       </c>
       <c r="D4">
-        <v>387.2390567885702</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1.215865786736222</v>
       </c>
       <c r="F4">
-        <v>-0.3320257947988949</v>
+        <v>-0.3320257947989308</v>
       </c>
       <c r="G4">
-        <v>0.5655993016365928</v>
+        <v>0.5655993016366079</v>
       </c>
     </row>
     <row r="5">
@@ -479,19 +479,19 @@
         <v>2715</v>
       </c>
       <c r="C5">
-        <v>386.9414880307917</v>
+        <v>-0.042378855893186</v>
       </c>
       <c r="D5">
-        <v>386.9838668866848</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1.625165666039994</v>
       </c>
       <c r="F5">
-        <v>-0.08325346294604227</v>
+        <v>-0.08325346294599795</v>
       </c>
       <c r="G5">
-        <v>0.09091301784858219</v>
+        <v>0.0909130178485773</v>
       </c>
     </row>
     <row r="6">
@@ -504,19 +504,19 @@
         <v>2718</v>
       </c>
       <c r="C6">
-        <v>387.2625050464738</v>
+        <v>-0.1065222801225338</v>
       </c>
       <c r="D6">
-        <v>387.3690273265964</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1.392900313456778</v>
       </c>
       <c r="F6">
-        <v>-0.4616334985102835</v>
+        <v>-0.4616334985102822</v>
       </c>
       <c r="G6">
-        <v>0.787749019478214</v>
+        <v>0.7877490194782126</v>
       </c>
     </row>
     <row r="7">
@@ -529,19 +529,19 @@
         <v>2629</v>
       </c>
       <c r="C7">
-        <v>386.8173255130815</v>
+        <v>-0.07910468506695154</v>
       </c>
       <c r="D7">
-        <v>386.8964301981485</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1.752316074368826</v>
       </c>
       <c r="F7">
-        <v>-0.2379704019337069</v>
+        <v>-0.2379704019337314</v>
       </c>
       <c r="G7">
-        <v>-0.1521540863187063</v>
+        <v>-0.1521540863186988</v>
       </c>
     </row>
     <row r="8">
@@ -554,19 +554,19 @@
         <v>2809</v>
       </c>
       <c r="C8">
-        <v>387.439487283573</v>
+        <v>-0.1640332861275977</v>
       </c>
       <c r="D8">
-        <v>387.6035205697006</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1.539506506405061</v>
       </c>
       <c r="F8">
-        <v>-0.3169014188782921</v>
+        <v>-0.3169014188783342</v>
       </c>
       <c r="G8">
-        <v>0.1677308646116145</v>
+        <v>0.1677308646116318</v>
       </c>
     </row>
     <row r="9">
@@ -579,19 +579,19 @@
         <v>1215</v>
       </c>
       <c r="C9">
-        <v>387.4388173465784</v>
+        <v>-0.09777626068994341</v>
       </c>
       <c r="D9">
-        <v>387.5365936072684</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1.620785703530477</v>
       </c>
       <c r="F9">
-        <v>-0.07005290854645424</v>
+        <v>-0.07005290854647486</v>
       </c>
       <c r="G9">
-        <v>-0.5961780685040301</v>
+        <v>-0.5961780685040279</v>
       </c>
     </row>
     <row r="10">
@@ -604,19 +604,19 @@
         <v>1937</v>
       </c>
       <c r="C10">
-        <v>386.9694360693297</v>
+        <v>-0.01936509699075568</v>
       </c>
       <c r="D10">
-        <v>386.9888011663205</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1.506517856368988</v>
       </c>
       <c r="F10">
-        <v>-0.1711394072040428</v>
+        <v>-0.1711394072040958</v>
       </c>
       <c r="G10">
-        <v>0.186863456739474</v>
+        <v>0.186863456739486</v>
       </c>
     </row>
     <row r="11">
@@ -629,19 +629,19 @@
         <v>1838</v>
       </c>
       <c r="C11">
-        <v>387.1909790238212</v>
+        <v>-0.1167156251603857</v>
       </c>
       <c r="D11">
-        <v>387.3076946489816</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1.192266613200502</v>
       </c>
       <c r="F11">
-        <v>-0.6937070539837423</v>
+        <v>-0.6937070539837674</v>
       </c>
       <c r="G11">
-        <v>1.380739891101147</v>
+        <v>1.380739891101169</v>
       </c>
     </row>
     <row r="12">
@@ -654,19 +654,19 @@
         <v>1885</v>
       </c>
       <c r="C12">
-        <v>387.5317655884826</v>
+        <v>-0.116167625410447</v>
       </c>
       <c r="D12">
-        <v>387.6479332138931</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1.333573253186748</v>
       </c>
       <c r="F12">
-        <v>-0.2459064695264767</v>
+        <v>-0.2459064695265267</v>
       </c>
       <c r="G12">
-        <v>0.2357726206422357</v>
+        <v>0.2357726206422517</v>
       </c>
     </row>
     <row r="13">
@@ -679,19 +679,19 @@
         <v>1167</v>
       </c>
       <c r="C13">
-        <v>387.345868595697</v>
+        <v>-0.07223482373254636</v>
       </c>
       <c r="D13">
-        <v>387.4181034194296</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1.463258557030148</v>
       </c>
       <c r="F13">
-        <v>-0.4569013605566123</v>
+        <v>-0.4569013605566646</v>
       </c>
       <c r="G13">
-        <v>0.9812587943120659</v>
+        <v>0.9812587943120978</v>
       </c>
     </row>
     <row r="14">
@@ -704,19 +704,19 @@
         <v>1332</v>
       </c>
       <c r="C14">
-        <v>387.1412462094812</v>
+        <v>-0.07583505243282235</v>
       </c>
       <c r="D14">
-        <v>387.217081261914</v>
+        <v>2.842170943040401E-14</v>
       </c>
       <c r="E14">
         <v>1.432882181232127</v>
       </c>
       <c r="F14">
-        <v>-0.4359629151490947</v>
+        <v>-0.4359629151490646</v>
       </c>
       <c r="G14">
-        <v>0.7483782737744353</v>
+        <v>0.7483782737744176</v>
       </c>
     </row>
     <row r="15">
@@ -729,19 +729,19 @@
         <v>1477</v>
       </c>
       <c r="C15">
-        <v>388.4381883895534</v>
+        <v>-0.0421670620429773</v>
       </c>
       <c r="D15">
-        <v>388.4803554515964</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1.445688955703633</v>
       </c>
       <c r="F15">
-        <v>-0.5779276682639747</v>
+        <v>-0.5779276682639168</v>
       </c>
       <c r="G15">
-        <v>2.11375978505539</v>
+        <v>2.113759785055346</v>
       </c>
     </row>
     <row r="16">
@@ -754,19 +754,19 @@
         <v>856</v>
       </c>
       <c r="C16">
-        <v>388.4124658794146</v>
+        <v>-0.06660592029639897</v>
       </c>
       <c r="D16">
-        <v>388.479071799711</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1.587305773226825</v>
       </c>
       <c r="F16">
-        <v>-0.1581859639359714</v>
+        <v>-0.1581859639359934</v>
       </c>
       <c r="G16">
-        <v>0.1198330976075468</v>
+        <v>0.1198330976075517</v>
       </c>
     </row>
     <row r="17">
@@ -779,19 +779,19 @@
         <v>1445</v>
       </c>
       <c r="C17">
-        <v>387.7634293206705</v>
+        <v>0.08630035253234784</v>
       </c>
       <c r="D17">
-        <v>387.6771289681381</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1.69418452977483</v>
       </c>
       <c r="F17">
-        <v>0.3939887492320298</v>
+        <v>0.3939887492320551</v>
       </c>
       <c r="G17">
-        <v>0.152294289086699</v>
+        <v>0.1522942890867127</v>
       </c>
     </row>
     <row r="18">
@@ -804,16 +804,16 @@
         <v>1747</v>
       </c>
       <c r="C18">
-        <v>387.1302126342749</v>
+        <v>-0.04142125619659769</v>
       </c>
       <c r="D18">
-        <v>387.1716338904715</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1.351063952638233</v>
       </c>
       <c r="F18">
-        <v>-0.1214769430852471</v>
+        <v>-0.1214769430852512</v>
       </c>
       <c r="G18">
         <v>2.089503294318475</v>
@@ -829,19 +829,19 @@
         <v>1408</v>
       </c>
       <c r="C19">
-        <v>387.9329004408691</v>
+        <v>0.1325910958376798</v>
       </c>
       <c r="D19">
-        <v>387.8003093450315</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1.338840305557669</v>
       </c>
       <c r="F19">
-        <v>0.5619541091825276</v>
+        <v>0.5619541091824699</v>
       </c>
       <c r="G19">
-        <v>0.855000928528785</v>
+        <v>0.855000928528741</v>
       </c>
     </row>
   </sheetData>

--- a/output/estat-desc-anomaly.xlsx
+++ b/output/estat-desc-anomaly.xlsx
@@ -404,19 +404,19 @@
         <v>3170</v>
       </c>
       <c r="C2">
-        <v>-0.02521513448528687</v>
+        <v>0.0291769996426459</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.18230522900363</v>
+        <v>1.099855186851101</v>
       </c>
       <c r="F2">
-        <v>-0.1972230939053632</v>
+        <v>0.1106141956321715</v>
       </c>
       <c r="G2">
-        <v>0.9477149137676699</v>
+        <v>1.014348535656709</v>
       </c>
     </row>
     <row r="3">
@@ -429,19 +429,19 @@
         <v>3072</v>
       </c>
       <c r="C3">
-        <v>-0.02293601632118225</v>
+        <v>0.05169334014256795</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.536246302957206</v>
+        <v>1.283410132593984</v>
       </c>
       <c r="F3">
-        <v>0.0504352358538508</v>
+        <v>0.06773283638240363</v>
       </c>
       <c r="G3">
-        <v>0.3045440459641484</v>
+        <v>1.299648672850906</v>
       </c>
     </row>
     <row r="4">
@@ -454,19 +454,19 @@
         <v>2256</v>
       </c>
       <c r="C4">
-        <v>-0.05640017732660822</v>
+        <v>-0.0200698122065118</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.215865786736222</v>
+        <v>1.099329766000789</v>
       </c>
       <c r="F4">
-        <v>-0.3320257947989308</v>
+        <v>-0.07258089808659511</v>
       </c>
       <c r="G4">
-        <v>0.5655993016366079</v>
+        <v>0.6860675485233898</v>
       </c>
     </row>
     <row r="5">
@@ -479,19 +479,19 @@
         <v>2715</v>
       </c>
       <c r="C5">
-        <v>-0.042378855893186</v>
+        <v>0.05145806581275898</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.625165666039994</v>
+        <v>1.252946527861164</v>
       </c>
       <c r="F5">
-        <v>-0.08325346294599795</v>
+        <v>0.1768562838775144</v>
       </c>
       <c r="G5">
-        <v>0.0909130178485773</v>
+        <v>0.7204275732032119</v>
       </c>
     </row>
     <row r="6">
@@ -504,19 +504,19 @@
         <v>2718</v>
       </c>
       <c r="C6">
-        <v>-0.1065222801225338</v>
+        <v>-0.02855143992667518</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.392900313456778</v>
+        <v>1.162765128386217</v>
       </c>
       <c r="F6">
-        <v>-0.4616334985102822</v>
+        <v>-0.2194565592735999</v>
       </c>
       <c r="G6">
-        <v>0.7877490194782126</v>
+        <v>1.419180333321655</v>
       </c>
     </row>
     <row r="7">
@@ -529,19 +529,19 @@
         <v>2629</v>
       </c>
       <c r="C7">
-        <v>-0.07910468506695154</v>
+        <v>0.08695272893314354</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.752316074368826</v>
+        <v>1.228466785000773</v>
       </c>
       <c r="F7">
-        <v>-0.2379704019337314</v>
+        <v>0.4394757577143562</v>
       </c>
       <c r="G7">
-        <v>-0.1521540863186988</v>
+        <v>0.8153549853234923</v>
       </c>
     </row>
     <row r="8">
@@ -554,19 +554,19 @@
         <v>2809</v>
       </c>
       <c r="C8">
-        <v>-0.1640332861275977</v>
+        <v>-0.03295531227054779</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.539506506405061</v>
+        <v>1.211658094075524</v>
       </c>
       <c r="F8">
-        <v>-0.3169014188783342</v>
+        <v>-0.05177058382972112</v>
       </c>
       <c r="G8">
-        <v>0.1677308646116318</v>
+        <v>1.065601583122945</v>
       </c>
     </row>
     <row r="9">
@@ -579,19 +579,19 @@
         <v>1215</v>
       </c>
       <c r="C9">
-        <v>-0.09777626068994341</v>
+        <v>0.03721112537776491</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.620785703530477</v>
+        <v>1.103938079037259</v>
       </c>
       <c r="F9">
-        <v>-0.07005290854647486</v>
+        <v>0.3247511564845024</v>
       </c>
       <c r="G9">
-        <v>-0.5961780685040279</v>
+        <v>0.775571794383195</v>
       </c>
     </row>
     <row r="10">
@@ -604,19 +604,19 @@
         <v>1937</v>
       </c>
       <c r="C10">
-        <v>-0.01936509699075568</v>
+        <v>-0.002584273260034848</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.506517856368988</v>
+        <v>1.148819990887185</v>
       </c>
       <c r="F10">
-        <v>-0.1711394072040958</v>
+        <v>0.06656429750696606</v>
       </c>
       <c r="G10">
-        <v>0.186863456739486</v>
+        <v>0.8483330004838847</v>
       </c>
     </row>
     <row r="11">
@@ -629,19 +629,19 @@
         <v>1838</v>
       </c>
       <c r="C11">
-        <v>-0.1167156251603857</v>
+        <v>0.01784348513797266</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.192266613200502</v>
+        <v>1.006958958156404</v>
       </c>
       <c r="F11">
-        <v>-0.6937070539837674</v>
+        <v>-0.2826645306670968</v>
       </c>
       <c r="G11">
-        <v>1.380739891101169</v>
+        <v>2.03310190332582</v>
       </c>
     </row>
     <row r="12">
@@ -654,19 +654,19 @@
         <v>1885</v>
       </c>
       <c r="C12">
-        <v>-0.116167625410447</v>
+        <v>0.0306990646240882</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.333573253186748</v>
+        <v>1.120783864623819</v>
       </c>
       <c r="F12">
-        <v>-0.2459064695265267</v>
+        <v>0.1136395560030249</v>
       </c>
       <c r="G12">
-        <v>0.2357726206422517</v>
+        <v>0.9802623002223294</v>
       </c>
     </row>
     <row r="13">
@@ -679,19 +679,19 @@
         <v>1167</v>
       </c>
       <c r="C13">
-        <v>-0.07223482373254636</v>
+        <v>0.0252398414906009</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.463258557030148</v>
+        <v>1.191831621865841</v>
       </c>
       <c r="F13">
-        <v>-0.4569013605566646</v>
+        <v>0.145130454426317</v>
       </c>
       <c r="G13">
-        <v>0.9812587943120978</v>
+        <v>0.3993924425958082</v>
       </c>
     </row>
     <row r="14">
@@ -704,19 +704,19 @@
         <v>1332</v>
       </c>
       <c r="C14">
-        <v>-0.07583505243282235</v>
+        <v>0.04251339199306729</v>
       </c>
       <c r="D14">
-        <v>2.842170943040401E-14</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.432882181232127</v>
+        <v>1.156913796119805</v>
       </c>
       <c r="F14">
-        <v>-0.4359629151490646</v>
+        <v>0.06043499057993024</v>
       </c>
       <c r="G14">
-        <v>0.7483782737744176</v>
+        <v>1.144711566255785</v>
       </c>
     </row>
     <row r="15">
@@ -729,19 +729,19 @@
         <v>1477</v>
       </c>
       <c r="C15">
-        <v>-0.0421670620429773</v>
+        <v>0.001013939818096226</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.445688955703633</v>
+        <v>1.063065114930978</v>
       </c>
       <c r="F15">
-        <v>-0.5779276682639168</v>
+        <v>-0.2905700380301147</v>
       </c>
       <c r="G15">
-        <v>2.113759785055346</v>
+        <v>3.037022929876084</v>
       </c>
     </row>
     <row r="16">
@@ -754,19 +754,19 @@
         <v>856</v>
       </c>
       <c r="C16">
-        <v>-0.06660592029639897</v>
+        <v>-0.08200529579804322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.587305773226825</v>
+        <v>1.454483920166294</v>
       </c>
       <c r="F16">
-        <v>-0.1581859639359934</v>
+        <v>-0.1383878085773039</v>
       </c>
       <c r="G16">
-        <v>0.1198330976075517</v>
+        <v>0.3568033823555146</v>
       </c>
     </row>
     <row r="17">
@@ -779,19 +779,19 @@
         <v>1445</v>
       </c>
       <c r="C17">
-        <v>0.08630035253234784</v>
+        <v>0.08767307373891652</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.69418452977483</v>
+        <v>1.287922126243668</v>
       </c>
       <c r="F17">
-        <v>0.3939887492320551</v>
+        <v>0.3528972470406477</v>
       </c>
       <c r="G17">
-        <v>0.1522942890867127</v>
+        <v>1.001965216581553</v>
       </c>
     </row>
     <row r="18">
@@ -804,19 +804,19 @@
         <v>1747</v>
       </c>
       <c r="C18">
-        <v>-0.04142125619659769</v>
+        <v>0.03515705355386019</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.351063952638233</v>
+        <v>1.183397475358938</v>
       </c>
       <c r="F18">
-        <v>-0.1214769430852512</v>
+        <v>0.5575102005741868</v>
       </c>
       <c r="G18">
-        <v>2.089503294318475</v>
+        <v>1.890449313619164</v>
       </c>
     </row>
     <row r="19">
@@ -829,19 +829,19 @@
         <v>1408</v>
       </c>
       <c r="C19">
-        <v>0.1325910958376798</v>
+        <v>0.06428701227361505</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.338840305557669</v>
+        <v>1.2627287352835</v>
       </c>
       <c r="F19">
-        <v>0.5619541091824699</v>
+        <v>0.2918829901806837</v>
       </c>
       <c r="G19">
-        <v>0.855000928528741</v>
+        <v>1.308244619245606</v>
       </c>
     </row>
   </sheetData>
